--- a/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B641F-C12C-FB44-9437-884644042C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AAB97-BB9D-E54F-AA4C-412BE7225C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="7" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="8" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="9" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="10" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="11" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="8" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="10" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>configuration</t>
   </si>
@@ -202,13 +204,103 @@
   </si>
   <si>
     <t>squeezed *</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>How to ensure a sustainable production process?</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>Report of the Beerwiser case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +314,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,15 +360,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -568,7 +694,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +720,220 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF62BA5-6C93-644F-B465-3698819BDF5D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547F3F4-3657-994E-9214-3EF841319E63}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -698,13 +1037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -790,12 +1127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -882,12 +1219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -945,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1167,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1214,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1259,51 +1596,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B641F-C12C-FB44-9437-884644042C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E66A2B-CD07-B04A-B0AC-690182623AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21780" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="7" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="8" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="9" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="10" r:id="rId9"/>
+    <sheet name="generic_text_elements" sheetId="11" r:id="rId2"/>
+    <sheet name="case_text_elements" sheetId="12" r:id="rId3"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId4"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId5"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId6"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId7"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId8"/>
+    <sheet name="theme_weights" sheetId="8" r:id="rId9"/>
+    <sheet name="key_output_weights" sheetId="9" r:id="rId10"/>
+    <sheet name="scenario_weights" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>configuration</t>
   </si>
@@ -202,15 +204,100 @@
   </si>
   <si>
     <t>squeezed *</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>text_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_comparison</t>
+  </si>
+  <si>
+    <t>Comparisons of options</t>
+  </si>
+  <si>
+    <t>title_theme_weights</t>
+  </si>
+  <si>
+    <t>title_scenario_weights</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Describing strategic challenge that requires a decision</t>
+  </si>
+  <si>
+    <t>Which indicators do you use to evaluate the impact of your decision(s)?</t>
+  </si>
+  <si>
+    <t>Which options do you have to influence your impact?</t>
+  </si>
+  <si>
+    <t>Which uncertainty do you want to account for?</t>
+  </si>
+  <si>
+    <t>text_key_outputs</t>
+  </si>
+  <si>
+    <t>text_dmo</t>
+  </si>
+  <si>
+    <t>text_scenarios</t>
+  </si>
+  <si>
+    <t>How to source energy?</t>
+  </si>
+  <si>
+    <t>Key output and theme weights</t>
+  </si>
+  <si>
+    <t>Scenario weights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -222,13 +309,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -255,17 +355,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1FD10895-72A3-7148-9AC0-E24F8F49DC8D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +701,256 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897110FD-3CDF-924E-A652-CE81174720E2}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4671918-A843-C04F-9129-57BE941EA328}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -698,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -790,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -882,7 +1238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -945,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1167,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1212,98 +1568,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/tRBS_main/trbs/src/vlinder/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E66A2B-CD07-B04A-B0AC-690182623AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE985C69-94C1-574B-B45D-A9BA607FB09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="-21780" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="-21100" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>configuration</t>
   </si>
@@ -282,6 +282,51 @@
   </si>
   <si>
     <t>Scenario weights</t>
+  </si>
+  <si>
+    <t>title_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>Resulting appreciations of different DMOs for scenario: </t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
   </si>
 </sst>
 </file>
@@ -371,8 +416,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1FD10895-72A3-7148-9AC0-E24F8F49DC8D}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897110FD-3CDF-924E-A652-CE81174720E2}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,6 +950,68 @@
       <c r="B12" s="3" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/tRBS_main/trbs/src/vlinder/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE985C69-94C1-574B-B45D-A9BA607FB09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F47EA2-20A4-434E-BE70-9ED40D095B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="-21100" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
   <si>
     <t>configuration</t>
   </si>
@@ -282,51 +282,6 @@
   </si>
   <si>
     <t>Scenario weights</t>
-  </si>
-  <si>
-    <t>title_decision_makers_options</t>
-  </si>
-  <si>
-    <t>Decision makers options (DMOs)</t>
-  </si>
-  <si>
-    <t>title_fixed_inputs</t>
-  </si>
-  <si>
-    <t>Fixed inputs</t>
-  </si>
-  <si>
-    <t>title_weighted_graph</t>
-  </si>
-  <si>
-    <t>Resulting appreciations of different DMOs for scenario: </t>
-  </si>
-  <si>
-    <t>intro_key_outputs</t>
-  </si>
-  <si>
-    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
-  </si>
-  <si>
-    <t>intro_decision_makers_options</t>
-  </si>
-  <si>
-    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
-  </si>
-  <si>
-    <t>intro_scenarios</t>
-  </si>
-  <si>
-    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
-  </si>
-  <si>
-    <t>intro_fixed_inputs</t>
-  </si>
-  <si>
-    <t>The inputs which only takes one value for all scenarios.</t>
-  </si>
-  <si>
-    <t>intro_weighted_graph</t>
   </si>
 </sst>
 </file>
@@ -845,7 +800,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,65 +907,35 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
+      <c r="A13"/>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
+      <c r="A14"/>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
+      <c r="A15"/>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
+      <c r="A16"/>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
+      <c r="A17"/>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
+      <c r="A18"/>
+      <c r="B18"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
+      <c r="A19"/>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
+      <c r="A20"/>
       <c r="B20"/>
     </row>
   </sheetData>

--- a/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/src/vlinder/data/beerwiser/xlsx/beerwiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E66A2B-CD07-B04A-B0AC-690182623AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D84501-F83F-8843-BE62-17970C2DA381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="-21780" windowWidth="34560" windowHeight="19760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="121">
   <si>
     <t>configuration</t>
   </si>
@@ -221,9 +221,6 @@
     <t>title_key_outputs</t>
   </si>
   <si>
-    <t>Strategic Challenge</t>
-  </si>
-  <si>
     <t>title_strategic_challenge</t>
   </si>
   <si>
@@ -239,33 +236,9 @@
     <t>text_strategic_challenge</t>
   </si>
   <si>
-    <t>title_comparison</t>
-  </si>
-  <si>
-    <t>Comparisons of options</t>
-  </si>
-  <si>
-    <t>title_theme_weights</t>
-  </si>
-  <si>
-    <t>title_scenario_weights</t>
-  </si>
-  <si>
     <t>Options</t>
   </si>
   <si>
-    <t>Describing strategic challenge that requires a decision</t>
-  </si>
-  <si>
-    <t>Which indicators do you use to evaluate the impact of your decision(s)?</t>
-  </si>
-  <si>
-    <t>Which options do you have to influence your impact?</t>
-  </si>
-  <si>
-    <t>Which uncertainty do you want to account for?</t>
-  </si>
-  <si>
     <t>text_key_outputs</t>
   </si>
   <si>
@@ -275,22 +248,169 @@
     <t>text_scenarios</t>
   </si>
   <si>
-    <t>How to source energy?</t>
-  </si>
-  <si>
-    <t>Key output and theme weights</t>
-  </si>
-  <si>
-    <t>Scenario weights</t>
+    <t>language</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>title_comparison_dmo</t>
+  </si>
+  <si>
+    <t>title_comparison_scenario</t>
+  </si>
+  <si>
+    <t>text_comparison_dmo</t>
+  </si>
+  <si>
+    <t>text_comparison_scenario</t>
+  </si>
+  <si>
+    <t>header_key_outputs</t>
+  </si>
+  <si>
+    <t>header_theme</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>graph_title_dmo</t>
+  </si>
+  <si>
+    <t>Appreciations per option for scenario</t>
+  </si>
+  <si>
+    <t>Appreciation</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>graph_text_dmo</t>
+  </si>
+  <si>
+    <t>graph_y_label_dmo</t>
+  </si>
+  <si>
+    <t>table_text_dmo</t>
+  </si>
+  <si>
+    <t>graph_text_scenarios</t>
+  </si>
+  <si>
+    <t>graph_title_scenarios</t>
+  </si>
+  <si>
+    <t>graph_y_label_scenarios</t>
+  </si>
+  <si>
+    <t>Like other brewers, Beerwiser uses a significant amount of water during the heating process and for cleaning bottles and kegs. On average, Beerwiser uses five pints of water to produce one pint of beer. In comparison, competitors such as Heineken and Carlsberg used 4.8 and 3.3 pints of water per pint of beer, respectively, in 2012 (Appleyard, n.d.).
+Additionally, injuries among brewery workers reported to the Bureau of Labor Statistics have been increasing, rising from 160 in 2011 to 530 in 2014 (Roth, 2016). This issue is also present at our brewery.
+The strategic challenge we face is determining which investments will lead to a more sustainable brewing process. We aim to create transparency for our key stakeholders regarding the potential value to our organization from reducing water consumption and workplace accidents.</t>
+  </si>
+  <si>
+    <t>The options you have to influence your impact</t>
+  </si>
+  <si>
+    <t>Key output</t>
+  </si>
+  <si>
+    <t>Appreciations per scenario</t>
+  </si>
+  <si>
+    <t>Strategic challenge</t>
+  </si>
+  <si>
+    <t>The indicators used to evaluate the impact of your decision</t>
+  </si>
+  <si>
+    <t>The table below shows the key output values per option, based on the selected scenario. The option with the highest weighted appreciation is highlighted.</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, where key outputs are grouped into themes. The used theme weights are displayed in the pie chart on the right, showing the relative weights of all key outputs belonging to that theme. Use the dropdown menu to navigate through the various scenarios.</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, grouped into scenarios. The used scenario weights are displayed in the pie chart on the right.</t>
+  </si>
+  <si>
+    <t>Strategic priorities</t>
+  </si>
+  <si>
+    <t>Risk appetite</t>
+  </si>
+  <si>
+    <t>The uncertainty you want to account for</t>
+  </si>
+  <si>
+    <t>The strategic challenge that requires a decision</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing strategic priorities</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing risk appetite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,6 +432,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,18 +484,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,13 +804,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -694,6 +829,14 @@
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -797,22 +940,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897110FD-3CDF-924E-A652-CE81174720E2}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="163.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -820,10 +963,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -839,7 +982,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,62 +995,211 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>74</v>
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>75</v>
+      <c r="B10" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -915,31 +1207,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4671918-A843-C04F-9129-57BE941EA328}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
